--- a/Testdata/TC_20.xlsx
+++ b/Testdata/TC_20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Kx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MpuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20kGKkq5zvlN16tS5VQW9ez33jUsSMRoGexW7ZlUMErihR4PzvUrMz6r2o8q7Dupeu8Q/whGeEw5gA6QCtnvN6F5lxvli1zSvrq5qV41aGJ2bdcuyzSeD/tidkTmu0oBxHLikkkp5b5eqOKjtzQeEYw9zrCT3Kr1xr9Ym1O0AbYADfE6iWitmNCCMdQNOOSVMSEYEc9LuDL6jNubUa49qNjLX6BmyFVPfU7gCUtE1DpYlEzonTt2yd6rWTrVhTWx7d9ve3arX7MeP308EUyDqY8bHJLqkriSMOZ4vpLi107Bse9veqiNzIwjmygzgoKHvjcglZcRrE99npSxi6gNsuhx2Xc6YFjJzsnqih6twEOHFbEK5T8qpMRq0jHmgdckmcdB+GBEX7PcglQ7J1TDSZp0s+sCdzGjElx28LD3XMSPRcCGMVE7UQZ0w4E2fRPx4AWdNPHAFYDg8igky72BmQh3KXPimQUw85wz7LC9UYKKTMLpgC+ySQ4hjU8xxFfgh9sDhOGWcutmiawx0FIULmBEWb4W+tw+zavAGRjpzLwATi2VbYXiRabeJieSpyvOFM51jnsDX6Gg8C6+Ggb8cx1PmRnRKvE4rQW/kIRGQWrodMx7OQYuMhBQtR/G86mBQXS4hCFdZqENcOsf+kQ+GZE4DZioQUDPm4Rnl7dCP5wFL9FqhohPY1YRcp7tMx2gIBxwIw4dBL0jwytQbWUWBUXiVrrnOkIbIkZvMTY58nbEK7gAtOcJ1jjwVsct96kONyJ9Hjlr0jPGMEL7RLRQHiXS4L6qO01oexvMphNgU4uxSrsqQmfER+Cr4O+jlWFBJqvJnYlm78gf0SNmoG3h34xImguVyazk28FZICPbkt3wcXAD1hPLZYTPZywYOUha4E7/OQxC9Cx8vJTm1Up6GeoHrxx5RSaEXnEkXFbqpQ72TjdZIfYhzB+FgOVkuIDczusvhY68C1XqX8Qj6gYrjhnHAo6XIHsjU0LfJsHgayAWwf2+Zs4h8P4Y2ZLkfB2479O6/mqescxxQfn8NwzhSKfH+ItJ6IjvGrENEnpGJ/97ybpk9sagUfB6QeRhQ9/7WBiML7b0HbIQlUXVvCaLi6954H2q7Kn0i1u8tFkEPCcWu1DJNxkKXSmfV4eHl5M07QqZDznDsQ//Gocyep7l3lYya7GIVkyeh48hPMqAjumMG7bHrzWsuNBCiBay54VwQTOhKT8bIzONFF+SSbnDex8F5DH1GmldW6Wn+FTVyEuGAie2kbcVKKt4MQkmeUu2Oo5LXMJaOoJJXCFxkruDQhMwXYYT9ARiG7mu30z0TtCMDzGd6BLXNJ25iZDMTTaWKmiWKvw0mi5Tahgh4nSZXiBIk9qIa8QyT0ZDY5QDC0m9jn04jlVWTUr6JBweWNYhJ/hWbK9ksJmcAlzGovt8mS9GhZwNNly5rJwzlwCKROuPR1k5922rArUOOkdzxiGDf6EIwc2L0gkvC+BzEdo0RYdSDL4r9XeM9MiUUiqA0kS5DpaXzcmg/yfNSlSboW6QUAdBvnFMoI+vAlJMJOKcER/4yB1Rb7Ycu4G5//O+b3zx/9eKz24+evvnih//9x69e/fNnN89+BB+3f/3bzce/VNtUYDTBU59IhSatnR2rsQV+lpKQMK4p22MvdrmknZ7KrjgdI325k4N2t9c+6LdkPkmJibgqKaa4Ny7DOBuO1SbkQvJIzcQTFMSZJPlJjwvcXIlyxD3ukhTRef5dgsoWr19+9vrln++U1gbLei24FG9X7fpbWzG4EdtruLQV6xdqgABvVa3tar2eA69g0EgVgNROPc9p2NZjqw7X7jSXe6kjbwKtsvRME3xursgpUlu1R6kL5McJUzr+BEIkZatQyA20i37xkzd/eVpAaetqSnEWUE62MWIxMxnIqQ9HE2M8PB61u8akOxZ+kvFyODX514D16mk8FZwqCGLsf8uA4g7FzKjAjahihGcGwe7MWEIk5uKw4GybqGqhB065quVBFMYLdSI5gYy6AZlmk40SG3KN5El7riWdjLUBrnS9+fvnmwT0RjpZQ5u+geRpqMBRpBxfR+2n/3r15YevXry4ff7zmy9/UJhBr5M+DYCfQzTlh6nbQ8rT9WaFgk7G0pgX1ndz9UUTxUXqKKQBZ479SN6h9AiBqC1mk39Rbw4lT04s7QX0FQp6D7PuNdeB7Rwis0gAPRcYqm2Y3T1TgsrhmV3/89vf3f7689tPnr/58E83H/3x5uNPXr/8/Ztnf1BRd/v0+e1Pn+ksv1oIpC7iRquaQEO+kbiGiEZD1G7jqw9+YQQhN6DlMGKZkb764NPcZEJR2ZxkM0NLlypSVGENmhcWckZOlVSHglwqohqAtihhjRShi1i4oG62yPtVMZWIO8n4Rm9SjRkxQuimvgk7KYIz4fvKaRFVUo/esep2XXOVNmILU8xypj/wwyk0GQlDPkCsQApSXy+QYeV6B/1hq9nPIEqJYeSRSLih+kBJSylKSo8lo8TVchTgQuPnxr54M1qDrbPSmXNpzNSPL2dNT6S/zU8VBQRqx1GkGqJAv+eP4wU0w8kz3d18+XSZ638PVa+a74izca9T5MM4x4VCWGQLguTL1KRZKk31mHjnUe3soTBNNgRe4bkTzKGf7FWndQl9ZWSKvNONojDamHwyTgIbQCcNGcXMLJ5i5JmqrtvLziohJAkv/VA3P73DsEN8wsu9Z5uZ9CC8fLAsnH1Z0R4b+p42ZrmrR2qWbIL8o75wlP/3TV85WzOKoLESD4ClH+GTi+sI7rsltVFbkYLiBgir61fyfRox/kRkAv2lKKcp5VR1qE/EhUt9yPGp09hWBACY+dnNgppJ6HL1r5XQ79M5LXkttJL4Lk4CtlwsVAvXK+cporQckmtoMHMzQFKcfg/KhnpHKTObcljIpam8eLtk9HzGyyr2zhQTj0ytqjsl9eqWZ+1UHxPSqNo2/MZuvW5Z2+LlU08OmYOSq5KLmMmBZf/ydP4HhUmlDCsdAAA=</t>
+          <t>JB8AAB+LCAAAAAAAAAOlWVtvI7cV/isDPbVA5bnY8toGPYFu3giVbMOS63VeitEMZbMecdQhx7beUiBBijRFURSbIr2iTykKdLtoEyDd7eW/BGvv9ql/oYeXuUly1uMCBjw8N5KH5/KRQu9cT0PjEseMRHS3Zq9ZNQNTPwoIPdutJXxStzdr77ioe+3j8NCLvSnmIGyAFmU714zs1s45n+2Y5tXV1drV+loUn5mOZdnmk0F/6J/jqVcnlHGP+riWaQVv16q5qB1MB5h7gcc9pblb6w17a21M/A7QBh71znC81koYoZixLuWEE8yEZow9jtudwffUxlxnbXPNRuYSPZdsJSQMlFxJUtG1HEyLR2SKXcdyrLq1VXc2RrazYzd2LHutsbHxXqqYCaK+x/gQx5fEl4Qh96YzqW5tORu2YzcsmG2lENjKHeCigzA4wpeE4aCNw5BV8oipD7Dpc9h1NWdayCzoakMPX8Lj2JudjwgPcVX1vSjGPjjqQXPv46uDWPtvNOsDd3ROYj7vePPKto4Zjg9mwhvVVF3UiShvhjjmxzM4VBzAmQPD5XGCkXkHM1fqEObDN6EJDtyJF7KiUomJTqL4gs08H+9DwprCxhUNIy+AyOKEceLnky4x0GEczcAiTN6KwmAPrGrhFYzMco+Ci8W0rSi6yFe3iolkDMhogDOdejwVX6Kj4Xl0dUDD+TAZMz8mYxx0Wqn0Sh4Smae12wnj0RRWkZOQohUoQVAfDOrzOWTbIgt1sE+mXngYgiOZuw6WSgTUTHg0IbwdhcmUsnRdC1R0Arsa4etsl9kYHcABU+H4iPZoKq9cvZJVVjiKrrI5lxnSEQVyk/npkS8zFoU7QEuPcJkjT0Xsco+E0AyK51GgliNjeI4xXxkWioNE3dsT7cVtzfeT6RhSbAx5dilnZcjM+QhiFeId1uVa0DLq8m9kWTvyD9aRsVGXBnfLpUwE0xXmcm3gLZAQ7ClshR69AOoJ4ef7zXQvKzhIeeBO+WUeguydhd5ckjMvFWmoR/0wCbAqCj06kSEq1qYO9U42WiL1Ic9d5NH5aD6DIszIDoeP3Rq05R3GY2j8NdePEsrjuageyNSib9NhyZjKCbzw3jqTGP8wAbwx30uo346C+88WKO8cU8Lvv8IoiVVJvL+K9J6ojgnrYFFnZOG/t75fZU8sriQ+pXgaUeLf39vgZLH64AEbYWlW3VsDq/y6t3wIvV21PpHr91aLASxCs6s0TZOxyCcyWHV6BAV9846U6eCJl4QA1Di02bOs9i6SUZNdLMoUSeg4DtMK6AoYzAAH+8F0zQcAIbDemh9NBcEE+HkyRGZRXqAgH3fpWd+jZwngjKyuLNKz+it65Cj2KBPbyWDFQileLYTSOqXgjquK10EiA0EVrwi4yFyQQyM8nUWxFw7AMWRPh53GTABHBh4/1yPobSH2UyebuWqmVV5ZuvC3ickmpbYhEl6XyQWiFBJ7UYg7l8lpSOxyAGkZtr2QjGNVVdNWvooHB5YDxLT+is1VBIvpGcCtC7rvd/FcQPF8oOkyZO2UoQJYFFJ3eLSx5TSsdQeQjRgjueMj7IVGF5KZY6NHLzHjU1DbMY4wIwF8ES/cMd7FY0ygCUoX6TZUWbuoh/bSOi+X0oT1lillAcAbZwTayLJgxskV3FPsxeG8IKi22o98kLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VNtUwmjkjUMsFzRqbW1Z6xsQZxkJCeeaEh4Hic8l7fRUouJsjPQtTg7a3V77cb8l60lGTNVVSzHFBXEeJflwqDYhJ5JHaqaRoETcUVqf9LjELbQoV1zYLnFZusi/S1H54vXLz1+//POd2tphOdayt7cbddt5KxRzLNteksugWL/UA4TwRt1q1B2nILwgg45UA8j81Avcddvatpx1cbXOaGkgrxJaZGlLI+/MXNBTpLaCR1kIFMcpUwb+CFIkY6tUKAx0iH75kzd/eVqS0t7VlLIVWJyEMWIyMx1I0/tHI2N4cHzU7hqj7lDESc4ryCnj3yCsZ8/yqRRUlCZe+B0Dmjs0M6MGN6KaEU0M7PnnxhwysZCHpWBbRVUTPdDk4iofx1EyUydSUMipKySzarJSY0WtkTzpz6Wik7NWiKu13vz9i1UKeiOdHNC6R4OWMaVZXEoaKnEUqcDXWfvZv1599dGrFy9un//85qsflSzoebKnAYhzyKbiMAt7KHm63yxQ0MlQOvPC+n6hv2iiuEgdRoRy5tqb8g6lRwhUbWFN/ke9KbQ8aVj6C+gLFPSux7rXXCe2u4/MMgHWOfOg20b53TMjqBqe+/U/v/3d7a+/uP30+ZuP/nTz8R9vPvn09cvfv3n2B5V1t0+f3/70ma7yi41ArkXcaBUINOQbiW+IbDRE7za+fv8XBo24AZDDSGRF+vr9zwrGxEIlOMktA6TLFlJewpJoUVnoGYWlZGso6WUqCgC0RQtbzyR0E4tmxM8nea8uTIm8k4xv9Ub1hGEjAjT1bdhJWThXvq+eVlEt9fCR5diO5qrViC2MPVZw/eMwGgPISBnyAWJBpKT1zQq5rJzvcf+g1eznImoRB3GAYxGG6gP1WAoq0/AqUIALYM9PQvFOtCS2zELpV6F0mfrBZdIMRMlb/TxRkkDtJI4VCKL6sX6YzAAAp09zd/Plc2UB8+4rfFpEwfm41ynzYVzgQvMrswVB8mU50ixVmnpMvO0oCLsvXJMPgVd64gR36Pd4ha4uAUvGpqg13TiO4pUFJ+ekYgNAz1BFzNzjmYwpplRIO8jPKiWkRS77ULc9vcOog0PMKz9Wp9qD6PLBunD2VVV77CAMtDOrXTcyt+QGii/2IlCqLqYZxwCbxPNe5Sf2PqEXvWq7d6G2WA17vLndsOxGY3trE29sN+wNx9l+5D9ytgA4SqPi9ilMiJuLuLtVmwTAYlk9v2cfwc27ojXlYKko7qLgKZmQurBnY7RHYsafiBKlvxTlNKOcKuj8xNU/Jj1R41N3vaEIIGAWJzNLq07rC1c/7kRhn0xJxfuqlRahshEIg9lMYcuqBwo9bx9fA/ItWIBqPf4B9DP1wFPFmsoqKPKZfmprmIwrmzNT5UPgi8B6mHY3AFz2cG35UwkJ/48FSOT1UBM9ysjZOa+cqNvb63gTO3Vn4vv1DRjUoRuP64E32bYta7IeNBzxoq2NQ3cg+KriJKKnEAb3iup65sJv3e7/AC/402MkHwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd-MM-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd-MM-yy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
     </row>
     <row r="22">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994AD6B-3536-4AAC-8122-05176BEC268C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_20.xlsx
+++ b/Testdata/TC_20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>JB8AAB+LCAAAAAAAAAOlWVtvI7cV/isDPbVA5bnY8toGPYFu3giVbMOS63VeitEMZbMecdQhx7beUiBBijRFURSbIr2iTykKdLtoEyDd7eW/BGvv9ql/oYeXuUly1uMCBjw8N5KH5/KRQu9cT0PjEseMRHS3Zq9ZNQNTPwoIPdutJXxStzdr77ioe+3j8NCLvSnmIGyAFmU714zs1s45n+2Y5tXV1drV+loUn5mOZdnmk0F/6J/jqVcnlHGP+riWaQVv16q5qB1MB5h7gcc9pblb6w17a21M/A7QBh71znC81koYoZixLuWEE8yEZow9jtudwffUxlxnbXPNRuYSPZdsJSQMlFxJUtG1HEyLR2SKXcdyrLq1VXc2RrazYzd2LHutsbHxXqqYCaK+x/gQx5fEl4Qh96YzqW5tORu2YzcsmG2lENjKHeCigzA4wpeE4aCNw5BV8oipD7Dpc9h1NWdayCzoakMPX8Lj2JudjwgPcVX1vSjGPjjqQXPv46uDWPtvNOsDd3ROYj7vePPKto4Zjg9mwhvVVF3UiShvhjjmxzM4VBzAmQPD5XGCkXkHM1fqEObDN6EJDtyJF7KiUomJTqL4gs08H+9DwprCxhUNIy+AyOKEceLnky4x0GEczcAiTN6KwmAPrGrhFYzMco+Ci8W0rSi6yFe3iolkDMhogDOdejwVX6Kj4Xl0dUDD+TAZMz8mYxx0Wqn0Sh4Smae12wnj0RRWkZOQohUoQVAfDOrzOWTbIgt1sE+mXngYgiOZuw6WSgTUTHg0IbwdhcmUsnRdC1R0Arsa4etsl9kYHcABU+H4iPZoKq9cvZJVVjiKrrI5lxnSEQVyk/npkS8zFoU7QEuPcJkjT0Xsco+E0AyK51GgliNjeI4xXxkWioNE3dsT7cVtzfeT6RhSbAx5dilnZcjM+QhiFeId1uVa0DLq8m9kWTvyD9aRsVGXBnfLpUwE0xXmcm3gLZAQ7ClshR69AOoJ4ef7zXQvKzhIeeBO+WUeguydhd5ckjMvFWmoR/0wCbAqCj06kSEq1qYO9U42WiL1Ic9d5NH5aD6DIszIDoeP3Rq05R3GY2j8NdePEsrjuageyNSib9NhyZjKCbzw3jqTGP8wAbwx30uo346C+88WKO8cU8Lvv8IoiVVJvL+K9J6ojgnrYFFnZOG/t75fZU8sriQ+pXgaUeLf39vgZLH64AEbYWlW3VsDq/y6t3wIvV21PpHr91aLASxCs6s0TZOxyCcyWHV6BAV9846U6eCJl4QA1Di02bOs9i6SUZNdLMoUSeg4DtMK6AoYzAAH+8F0zQcAIbDemh9NBcEE+HkyRGZRXqAgH3fpWd+jZwngjKyuLNKz+it65Cj2KBPbyWDFQileLYTSOqXgjquK10EiA0EVrwi4yFyQQyM8nUWxFw7AMWRPh53GTABHBh4/1yPobSH2UyebuWqmVV5ZuvC3ickmpbYhEl6XyQWiFBJ7UYg7l8lpSOxyAGkZtr2QjGNVVdNWvooHB5YDxLT+is1VBIvpGcCtC7rvd/FcQPF8oOkyZO2UoQJYFFJ3eLSx5TSsdQeQjRgjueMj7IVGF5KZY6NHLzHjU1DbMY4wIwF8ES/cMd7FY0ygCUoX6TZUWbuoh/bSOi+X0oT1lillAcAbZwTayLJgxskV3FPsxeG8IKi22o98kLv98b9vfvP81YvPbz9++ubLD/77j1+9+ufPbp59CB+3f/3bzSe/VNtUwmjkjUMsFzRqbW1Z6xsQZxkJCeeaEh4Hic8l7fRUouJsjPQtTg7a3V77cb8l60lGTNVVSzHFBXEeJflwqDYhJ5JHaqaRoETcUVqf9LjELbQoV1zYLnFZusi/S1H54vXLz1+//POd2tphOdayt7cbddt5KxRzLNteksugWL/UA4TwRt1q1B2nILwgg45UA8j81Avcddvatpx1cbXOaGkgrxJaZGlLI+/MXNBTpLaCR1kIFMcpUwb+CFIkY6tUKAx0iH75kzd/eVqS0t7VlLIVWJyEMWIyMx1I0/tHI2N4cHzU7hqj7lDESc4ryCnj3yCsZ8/yqRRUlCZe+B0Dmjs0M6MGN6KaEU0M7PnnxhwysZCHpWBbRVUTPdDk4iofx1EyUydSUMipKySzarJSY0WtkTzpz6Wik7NWiKu13vz9i1UKeiOdHNC6R4OWMaVZXEoaKnEUqcDXWfvZv1599dGrFy9un//85qsflSzoebKnAYhzyKbiMAt7KHm63yxQ0MlQOvPC+n6hv2iiuEgdRoRy5tqb8g6lRwhUbWFN/ke9KbQ8aVj6C+gLFPSux7rXXCe2u4/MMgHWOfOg20b53TMjqBqe+/U/v/3d7a+/uP30+ZuP/nTz8R9vPvn09cvfv3n2B5V1t0+f3/70ma7yi41ArkXcaBUINOQbiW+IbDRE7za+fv8XBo24AZDDSGRF+vr9zwrGxEIlOMktA6TLFlJewpJoUVnoGYWlZGso6WUqCgC0RQtbzyR0E4tmxM8nea8uTIm8k4xv9Ub1hGEjAjT1bdhJWThXvq+eVlEt9fCR5diO5qrViC2MPVZw/eMwGgPISBnyAWJBpKT1zQq5rJzvcf+g1eznImoRB3GAYxGG6gP1WAoq0/AqUIALYM9PQvFOtCS2zELpV6F0mfrBZdIMRMlb/TxRkkDtJI4VCKL6sX6YzAAAp09zd/Plc2UB8+4rfFpEwfm41ynzYVzgQvMrswVB8mU50ixVmnpMvO0oCLsvXJMPgVd64gR36Pd4ha4uAUvGpqg13TiO4pUFJ+ekYgNAz1BFzNzjmYwpplRIO8jPKiWkRS77ULc9vcOog0PMKz9Wp9qD6PLBunD2VVV77CAMtDOrXTcyt+QGii/2IlCqLqYZxwCbxPNe5Sf2PqEXvWq7d6G2WA17vLndsOxGY3trE29sN+wNx9l+5D9ytgA4SqPi9ilMiJuLuLtVmwTAYlk9v2cfwc27ojXlYKko7qLgKZmQurBnY7RHYsafiBKlvxTlNKOcKuj8xNU/Jj1R41N3vaEIIGAWJzNLq07rC1c/7kRhn0xJxfuqlRahshEIg9lMYcuqBwo9bx9fA/ItWIBqPf4B9DP1wFPFmsoqKPKZfmprmIwrmzNT5UPgi8B6mHY3AFz2cG35UwkJ/48FSOT1UBM9ysjZOa+cqNvb63gTO3Vn4vv1DRjUoRuP64E32bYta7IeNBzxoq2NQ3cg+KriJKKnEAb3iup65sJv3e7/AC/402MkHwAA</t>
+          <t>Kx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3d12MpuJKr3yLVkLO45sh0z2BZW7K3GRdrfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ20kGKkq5zvlN16tS5VQW9ez33jUsSMRoGexW7ZlUMErihR4PzvUrMz6r2o8q7Dupeu8Q/whGeEw5gA6QCtnvN6F5lxvli1zSvrq5qV41aGJ2bdcuyzSeD/tidkTmu0oBxHLikkkp5b5eqOKjtzQeEYw9zrCT3Kr1xr9Ym1O0AbYADfE6iWitmNCCMdQNOOSVMSEYEc9LuDL6jNubUa49qNjLX6BmyFVPfU7gCUtE1DpYlEzonTt2yd6rWTrVhTWx7d9ve3arX7MeP308EUyDqY8bHJLqkriSMOZ4vpLi107Bse9veqiNzIwjmygzgoKHvjcglZcRrE99npSxi6gNsuhx2Xc6YFjJzsnqih6twEOHFbEK5T8qpMRq0jHmgdckmcdB+GBEX7PcglQ7J1TDSZp0s+sCdzGjElx28LD3XMSPRcCGMVE7UQZ0w4E2fRPx4AWdNPHAFYDg8igky72BmQh3KXPimQUw85wz7LC9UYKKTMLpgC+ySQ4hjU8xxFfgh9sDhOGWcutmiawx0FIULmBEWb4W+tw+zavAGRjpzLwATi2VbYXiRabeJieSpyvOFM51jnsDX6Gg8C6+Ggb8cx1PmRnRKvE4rQW/kIRGQWrodMx7OQYuMhBQtR/G86mBQXS4hCFdZqENcOsf+kQ+GZE4DZioQUDPm4Rnl7dCP5wFL9FqhohPY1YRcp7tMx2gIBxwIw4dBL0jwytQbWUWBUXiVrrnOkIbIkZvMTY58nbEK7gAtOcJ1jjwVsct96kONyJ9Hjlr0jPGMEL7RLRQHiXS4L6qO01oexvMphNgU4uxSrsqQmfER+Cr4O+jlWFBJqvJnYlm78gf0SNmoG3h34xImguVyazk28FZICPbkt3wcXAD1hPLZYTPZywYOUha4E7/OQxC9Cx8vJTm1Up6GeoHrxx5RSaEXnEkXFbqpQ72TjdZIfYhzB+FgOVkuIDczusvhY68C1XqX8Qj6gYrjhnHAo6XIHsjU0LfJsHgayAWwf2+Zs4h8P4Y2ZLkfB2479O6/mqescxxQfn8NwzhSKfH+ItJ6IjvGrENEnpGJ/97ybpk9sagUfB6QeRhQ9/7WBiML7b0HbIQlUXVvCaLi6954H2q7Kn0i1u8tFkEPCcWu1DJNxkKXSmfV4eHl5M07QqZDznDsQ//Gocyep7l3lYya7GIVkyeh48hPMqAjumMG7bHrzWsuNBCiBay54VwQTOhKT8bIzONFF+SSbnDex8F5DH1GmldW6Wn+FTVyEuGAie2kbcVKKt4MQkmeUu2Oo5LXMJaOoJJXCFxkruDQhMwXYYT9ARiG7mu30z0TtCMDzGd6BLXNJ25iZDMTTaWKmiWKvw0mi5Tahgh4nSZXiBIk9qIa8QyT0ZDY5QDC0m9jn04jlVWTUr6JBweWNYhJ/hWbK9ksJmcAlzGovt8mS9GhZwNNly5rJwzlwCKROuPR1k5922rArUOOkdzxiGDf6EIwc2L0gkvC+BzEdo0RYdSDL4r9XeM9MiUUiqA0kS5DpaXzcmg/yfNSlSboW6QUAdBvnFMoI+vAlJMJOKcER/4yB1Rb7Ycu4G5//O+b3zx/9eKz24+evvnih//9x69e/fNnN89+BB+3f/3bzce/VNtUYDTBU59IhSatnR2rsQV+lpKQMK4p22MvdrmknZ7KrjgdI325k4N2t9c+6LdkPkmJibgqKaa4Ny7DOBuO1SbkQvJIzcQTFMSZJPlJjwvcXIlyxD3ukhTRef5dgsoWr19+9vrln++U1gbLei24FG9X7fpbWzG4EdtruLQV6xdqgABvVa3tar2eA69g0EgVgNROPc9p2NZjqw7X7jSXe6kjbwKtsvRME3xursgpUlu1R6kL5McJUzr+BEIkZatQyA20i37xkzd/eVpAaetqSnEWUE62MWIxMxnIqQ9HE2M8PB61u8akOxZ+kvFyODX514D16mk8FZwqCGLsf8uA4g7FzKjAjahihGcGwe7MWEIk5uKw4GybqGqhB065quVBFMYLdSI5gYy6AZlmk40SG3KN5El7riWdjLUBrnS9+fvnmwT0RjpZQ5u+geRpqMBRpBxfR+2n/3r15YevXry4ff7zmy9/UJhBr5M+DYCfQzTlh6nbQ8rT9WaFgk7G0pgX1ndz9UUTxUXqKKQBZ479SN6h9AiBqC1mk39Rbw4lT04s7QX0FQp6D7PuNdeB7Rwis0gAPRcYqm2Y3T1TgsrhmV3/89vf3f7689tPnr/58E83H/3x5uNPXr/8/Ztnf1BRd/v0+e1Pn+ksv1oIpC7iRquaQEO+kbiGiEZD1G7jqw9+YQQhN6DlMGKZkb764NPcZEJR2ZxkM0NLlypSVGENmhcWckZOlVSHglwqohqAtihhjRShi1i4oG62yPtVMZWIO8n4Rm9SjRkxQuimvgk7KYIz4fvKaRFVUo/esep2XXOVNmILU8xypj/wwyk0GQlDPkCsQApSXy+QYeV6B/1hq9nPIEqJYeSRSLih+kBJSylKSo8lo8TVchTgQuPnxr54M1qDrbPSmXNpzNSPL2dNT6S/zU8VBQRqx1GkGqJAv+eP4wU0w8kz3d18+XSZ638PVa+a74izca9T5MM4x4VCWGQLguTL1KRZKk31mHjnUe3soTBNNgRe4bkTzKGf7FWndQl9ZWSKvNONojDamHwyTgIbQCcNGcXMLJ5i5JmqrtvLziohJAkv/VA3P73DsEN8wsu9Z5uZ9CC8fLAsnH1Z0R4b+p42ZrmrR2qWbIL8o75wlP/3TV85WzOKoLESD4ClH+GTi+sI7rsltVFbkYLiBgir61fyfRox/kRkAv2lKKcp5VR1qE/EhUt9yPGp09hWBACY+dnNgppJ6HL1r5XQ79M5LXkttJL4Lk4CtlwsVAvXK+cporQckmtoMHMzQFKcfg/KhnpHKTObcljIpam8eLtk9HzGyyr2zhQTj0ytqjsl9eqWZ+1UHxPSqNo2/MZuvW5Z2+LlU08OmYOSq5KLmMmBZf/ydP4HhUmlDCsdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd-MM-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd-MM-yy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
     </row>
     <row r="22">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994AD6B-3536-4AAC-8122-05176BEC268C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>